--- a/state_results/Rivers/WaikawaatHuritini_b841af54ad.xlsx
+++ b/state_results/Rivers/WaikawaatHuritini_b841af54ad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U226"/>
+  <dimension ref="A1:U245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0.784392514072157</v>
+        <v>0.784300305683267</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
@@ -813,7 +813,7 @@
         <v>365</v>
       </c>
       <c r="G5" t="n">
-        <v>866.203226119868</v>
+        <v>866.217137874454</v>
       </c>
       <c r="H5" t="n">
         <v>5475</v>
@@ -898,7 +898,7 @@
         <v>365</v>
       </c>
       <c r="G6" t="n">
-        <v>866.203226119868</v>
+        <v>866.217137874454</v>
       </c>
       <c r="H6" t="n">
         <v>5475</v>
@@ -983,7 +983,7 @@
         <v>365</v>
       </c>
       <c r="G7" t="n">
-        <v>866.203226119868</v>
+        <v>866.217137874454</v>
       </c>
       <c r="H7" t="n">
         <v>5475</v>
@@ -1068,7 +1068,7 @@
         <v>365</v>
       </c>
       <c r="G8" t="n">
-        <v>866.203226119868</v>
+        <v>866.217137874454</v>
       </c>
       <c r="H8" t="n">
         <v>5475</v>
@@ -1153,7 +1153,7 @@
         <v>0.01353</v>
       </c>
       <c r="G9" t="n">
-        <v>0.027131529799476</v>
+        <v>0.0271396316459539</v>
       </c>
       <c r="H9" t="n">
         <v>0.235</v>
@@ -1234,7 +1234,7 @@
         <v>0.01353</v>
       </c>
       <c r="G10" t="n">
-        <v>0.027131529799476</v>
+        <v>0.0271396316459539</v>
       </c>
       <c r="H10" t="n">
         <v>0.235</v>
@@ -1473,7 +1473,7 @@
         <v>0.954</v>
       </c>
       <c r="G13" t="n">
-        <v>1.00383050847458</v>
+        <v>1.00386101694915</v>
       </c>
       <c r="H13" t="n">
         <v>2.057</v>
@@ -1550,7 +1550,7 @@
         <v>0.954</v>
       </c>
       <c r="G14" t="n">
-        <v>1.00383050847458</v>
+        <v>1.00386101694915</v>
       </c>
       <c r="H14" t="n">
         <v>2.057</v>
@@ -2182,7 +2182,7 @@
         <v>361</v>
       </c>
       <c r="G22" t="n">
-        <v>1088.52526001817</v>
+        <v>1088.53917177276</v>
       </c>
       <c r="H22" t="n">
         <v>18000</v>
@@ -2267,7 +2267,7 @@
         <v>361</v>
       </c>
       <c r="G23" t="n">
-        <v>1088.52526001817</v>
+        <v>1088.53917177276</v>
       </c>
       <c r="H23" t="n">
         <v>18000</v>
@@ -2352,7 +2352,7 @@
         <v>361</v>
       </c>
       <c r="G24" t="n">
-        <v>1088.52526001817</v>
+        <v>1088.53917177276</v>
       </c>
       <c r="H24" t="n">
         <v>18000</v>
@@ -2437,7 +2437,7 @@
         <v>361</v>
       </c>
       <c r="G25" t="n">
-        <v>1088.52526001817</v>
+        <v>1088.53917177276</v>
       </c>
       <c r="H25" t="n">
         <v>18000</v>
@@ -2522,7 +2522,7 @@
         <v>0.0145</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0310546051131796</v>
+        <v>0.0310605180215409</v>
       </c>
       <c r="H26" t="n">
         <v>0.235</v>
@@ -2603,7 +2603,7 @@
         <v>0.0145</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0310546051131796</v>
+        <v>0.0310605180215409</v>
       </c>
       <c r="H27" t="n">
         <v>0.235</v>
@@ -2842,7 +2842,7 @@
         <v>0.885</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9678983050847459</v>
+        <v>0.96791186440678</v>
       </c>
       <c r="H30" t="n">
         <v>2.068</v>
@@ -2919,7 +2919,7 @@
         <v>0.885</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9678983050847459</v>
+        <v>0.96791186440678</v>
       </c>
       <c r="H31" t="n">
         <v>2.068</v>
@@ -4211,7 +4211,7 @@
         <v>0.836</v>
       </c>
       <c r="G47" t="n">
-        <v>0.872254237288136</v>
+        <v>0.872261016949153</v>
       </c>
       <c r="H47" t="n">
         <v>2.068</v>
@@ -4222,7 +4222,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.5695</v>
+        <v>0.5696</v>
       </c>
       <c r="M47" t="n">
         <v>1.20588</v>
@@ -4288,7 +4288,7 @@
         <v>0.836</v>
       </c>
       <c r="G48" t="n">
-        <v>0.872254237288136</v>
+        <v>0.872261016949153</v>
       </c>
       <c r="H48" t="n">
         <v>2.068</v>
@@ -4299,7 +4299,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.5695</v>
+        <v>0.5696</v>
       </c>
       <c r="M48" t="n">
         <v>1.20588</v>
@@ -4677,10 +4677,10 @@
         <v>1.2</v>
       </c>
       <c r="G53" t="n">
-        <v>1.73225785877354</v>
+        <v>1.76624039540715</v>
       </c>
       <c r="H53" t="n">
-        <v>7.08611936235661</v>
+        <v>8.683298584136059</v>
       </c>
       <c r="I53" t="n">
         <v>4.665</v>
@@ -5580,7 +5580,7 @@
         <v>0.8545</v>
       </c>
       <c r="G64" t="n">
-        <v>0.878216666666667</v>
+        <v>0.878221666666667</v>
       </c>
       <c r="H64" t="n">
         <v>2.068</v>
@@ -5591,13 +5591,13 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.6135</v>
+        <v>0.6136</v>
       </c>
       <c r="M64" t="n">
-        <v>1.2573</v>
+        <v>1.25744</v>
       </c>
       <c r="N64" t="n">
-        <v>1.4462</v>
+        <v>1.44627</v>
       </c>
       <c r="O64" t="n">
         <v>1782982</v>
@@ -5657,7 +5657,7 @@
         <v>0.8545</v>
       </c>
       <c r="G65" t="n">
-        <v>0.878216666666667</v>
+        <v>0.878221666666667</v>
       </c>
       <c r="H65" t="n">
         <v>2.068</v>
@@ -5668,13 +5668,13 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.6135</v>
+        <v>0.6136</v>
       </c>
       <c r="M65" t="n">
-        <v>1.2573</v>
+        <v>1.25744</v>
       </c>
       <c r="N65" t="n">
-        <v>1.4462</v>
+        <v>1.44627</v>
       </c>
       <c r="O65" t="n">
         <v>1782982</v>
@@ -6046,10 +6046,10 @@
         <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>2.42991180368992</v>
+        <v>2.46621133145764</v>
       </c>
       <c r="H70" t="n">
-        <v>7.08611936235661</v>
+        <v>8.683298584136059</v>
       </c>
       <c r="I70" t="n">
         <v>5.9</v>
@@ -6629,7 +6629,7 @@
         <v>0.01099</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0190314841337508</v>
+        <v>0.0190405407865001</v>
       </c>
       <c r="H77" t="n">
         <v>0.175779262385314</v>
@@ -6710,7 +6710,7 @@
         <v>0.01099</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0190314841337508</v>
+        <v>0.0190405407865001</v>
       </c>
       <c r="H78" t="n">
         <v>0.175779262385314</v>
@@ -6949,13 +6949,13 @@
         <v>0.9445</v>
       </c>
       <c r="G81" t="n">
-        <v>0.920016666666667</v>
+        <v>0.920033333333333</v>
       </c>
       <c r="H81" t="n">
         <v>2.068</v>
       </c>
       <c r="I81" t="n">
-        <v>1.874</v>
+        <v>1.8742</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -6963,7 +6963,7 @@
         <v>0.639</v>
       </c>
       <c r="M81" t="n">
-        <v>1.3512</v>
+        <v>1.35114</v>
       </c>
       <c r="N81" t="n">
         <v>1.4995</v>
@@ -7026,13 +7026,13 @@
         <v>0.9445</v>
       </c>
       <c r="G82" t="n">
-        <v>0.920016666666667</v>
+        <v>0.920033333333333</v>
       </c>
       <c r="H82" t="n">
         <v>2.068</v>
       </c>
       <c r="I82" t="n">
-        <v>1.874</v>
+        <v>1.8742</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -7040,7 +7040,7 @@
         <v>0.639</v>
       </c>
       <c r="M82" t="n">
-        <v>1.3512</v>
+        <v>1.35114</v>
       </c>
       <c r="N82" t="n">
         <v>1.4995</v>
@@ -7492,10 +7492,10 @@
         <v>1.8</v>
       </c>
       <c r="G88" t="n">
-        <v>2.3422108200491</v>
+        <v>2.3754853871695</v>
       </c>
       <c r="H88" t="n">
-        <v>7.08611936235661</v>
+        <v>8.683298584136059</v>
       </c>
       <c r="I88" t="n">
         <v>5.7</v>
@@ -8152,7 +8152,7 @@
         <v>0.008529999999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0130556311255871</v>
+        <v>0.013071529207761</v>
       </c>
       <c r="H96" t="n">
         <v>0.145</v>
@@ -8163,7 +8163,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.00408</v>
+        <v>0.00424</v>
       </c>
       <c r="M96" t="n">
         <v>0.02038</v>
@@ -8233,7 +8233,7 @@
         <v>0.008529999999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0130556311255871</v>
+        <v>0.013071529207761</v>
       </c>
       <c r="H97" t="n">
         <v>0.145</v>
@@ -8244,7 +8244,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.00408</v>
+        <v>0.00424</v>
       </c>
       <c r="M97" t="n">
         <v>0.02038</v>
@@ -8546,10 +8546,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.9785</v>
+        <v>0.9788</v>
       </c>
       <c r="G101" t="n">
-        <v>0.976383333333333</v>
+        <v>0.9764</v>
       </c>
       <c r="H101" t="n">
         <v>2.068</v>
@@ -8563,10 +8563,10 @@
         <v>0.89</v>
       </c>
       <c r="M101" t="n">
-        <v>1.4176</v>
+        <v>1.41756</v>
       </c>
       <c r="N101" t="n">
-        <v>1.7561</v>
+        <v>1.75638</v>
       </c>
       <c r="O101" t="n">
         <v>1782982</v>
@@ -8623,10 +8623,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.9785</v>
+        <v>0.9788</v>
       </c>
       <c r="G102" t="n">
-        <v>0.976383333333333</v>
+        <v>0.9764</v>
       </c>
       <c r="H102" t="n">
         <v>2.068</v>
@@ -8640,10 +8640,10 @@
         <v>0.89</v>
       </c>
       <c r="M102" t="n">
-        <v>1.4176</v>
+        <v>1.41756</v>
       </c>
       <c r="N102" t="n">
-        <v>1.7561</v>
+        <v>1.75638</v>
       </c>
       <c r="O102" t="n">
         <v>1782982</v>
@@ -9092,10 +9092,10 @@
         <v>1.5</v>
       </c>
       <c r="G108" t="n">
-        <v>2.23361129048601</v>
+        <v>2.268332577916</v>
       </c>
       <c r="H108" t="n">
-        <v>7.08611936235661</v>
+        <v>8.683298584136059</v>
       </c>
       <c r="I108" t="n">
         <v>5.8</v>
@@ -9752,7 +9752,7 @@
         <v>0.0075</v>
       </c>
       <c r="G116" t="n">
-        <v>0.009335950556971701</v>
+        <v>0.0093518486391456</v>
       </c>
       <c r="H116" t="n">
         <v>0.0276653989042995</v>
@@ -9763,7 +9763,7 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.004</v>
+        <v>0.00409</v>
       </c>
       <c r="M116" t="n">
         <v>0.01652</v>
@@ -9833,7 +9833,7 @@
         <v>0.0075</v>
       </c>
       <c r="G117" t="n">
-        <v>0.009335950556971701</v>
+        <v>0.0093518486391456</v>
       </c>
       <c r="H117" t="n">
         <v>0.0276653989042995</v>
@@ -9844,7 +9844,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>0.004</v>
+        <v>0.00409</v>
       </c>
       <c r="M117" t="n">
         <v>0.01652</v>
@@ -10146,16 +10146,16 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.9785</v>
+        <v>0.9788</v>
       </c>
       <c r="G121" t="n">
-        <v>0.963966666666667</v>
+        <v>0.963983333333333</v>
       </c>
       <c r="H121" t="n">
         <v>1.965</v>
       </c>
       <c r="I121" t="n">
-        <v>1.874</v>
+        <v>1.8742</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -10163,7 +10163,7 @@
         <v>0.8575</v>
       </c>
       <c r="M121" t="n">
-        <v>1.4176</v>
+        <v>1.41756</v>
       </c>
       <c r="N121" t="n">
         <v>1.579</v>
@@ -10223,16 +10223,16 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.9785</v>
+        <v>0.9788</v>
       </c>
       <c r="G122" t="n">
-        <v>0.963966666666667</v>
+        <v>0.963983333333333</v>
       </c>
       <c r="H122" t="n">
         <v>1.965</v>
       </c>
       <c r="I122" t="n">
-        <v>1.874</v>
+        <v>1.8742</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -10240,7 +10240,7 @@
         <v>0.8575</v>
       </c>
       <c r="M122" t="n">
-        <v>1.4176</v>
+        <v>1.41756</v>
       </c>
       <c r="N122" t="n">
         <v>1.579</v>
@@ -10692,10 +10692,10 @@
         <v>1.2</v>
       </c>
       <c r="G128" t="n">
-        <v>1.92165476874688</v>
+        <v>1.95637605617687</v>
       </c>
       <c r="H128" t="n">
-        <v>7.08611936235661</v>
+        <v>8.683298584136059</v>
       </c>
       <c r="I128" t="n">
         <v>5.72</v>
@@ -11352,7 +11352,7 @@
         <v>0.0081</v>
       </c>
       <c r="G136" t="n">
-        <v>0.010834278335817</v>
+        <v>0.0108523045122107</v>
       </c>
       <c r="H136" t="n">
         <v>0.0351673031794904</v>
@@ -11363,7 +11363,7 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
-        <v>0.00452</v>
+        <v>0.00459</v>
       </c>
       <c r="M136" t="n">
         <v>0.01908</v>
@@ -11433,7 +11433,7 @@
         <v>0.0081</v>
       </c>
       <c r="G137" t="n">
-        <v>0.010834278335817</v>
+        <v>0.0108523045122107</v>
       </c>
       <c r="H137" t="n">
         <v>0.0351673031794904</v>
@@ -11444,7 +11444,7 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
-        <v>0.00452</v>
+        <v>0.00459</v>
       </c>
       <c r="M137" t="n">
         <v>0.01908</v>
@@ -11749,13 +11749,13 @@
         <v>1.03</v>
       </c>
       <c r="G141" t="n">
-        <v>1.05268333333333</v>
+        <v>1.05269333333333</v>
       </c>
       <c r="H141" t="n">
         <v>1.965</v>
       </c>
       <c r="I141" t="n">
-        <v>1.874</v>
+        <v>1.8742</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -11826,13 +11826,13 @@
         <v>1.03</v>
       </c>
       <c r="G142" t="n">
-        <v>1.05268333333333</v>
+        <v>1.05269333333333</v>
       </c>
       <c r="H142" t="n">
         <v>1.965</v>
       </c>
       <c r="I142" t="n">
-        <v>1.874</v>
+        <v>1.8742</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -12952,7 +12952,7 @@
         <v>0.008789999999999999</v>
       </c>
       <c r="G156" t="n">
-        <v>0.011687229463823</v>
+        <v>0.0117059111375401</v>
       </c>
       <c r="H156" t="n">
         <v>0.0351673031794904</v>
@@ -12963,7 +12963,7 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
-        <v>0.00465</v>
+        <v>0.00469</v>
       </c>
       <c r="M156" t="n">
         <v>0.01879</v>
@@ -13033,7 +13033,7 @@
         <v>0.008789999999999999</v>
       </c>
       <c r="G157" t="n">
-        <v>0.011687229463823</v>
+        <v>0.0117059111375401</v>
       </c>
       <c r="H157" t="n">
         <v>0.0351673031794904</v>
@@ -13044,7 +13044,7 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
-        <v>0.00465</v>
+        <v>0.00469</v>
       </c>
       <c r="M157" t="n">
         <v>0.01879</v>
@@ -13349,7 +13349,7 @@
         <v>1.0175</v>
       </c>
       <c r="G161" t="n">
-        <v>1.03228333333333</v>
+        <v>1.032295</v>
       </c>
       <c r="H161" t="n">
         <v>1.965</v>
@@ -13426,7 +13426,7 @@
         <v>1.0175</v>
       </c>
       <c r="G162" t="n">
-        <v>1.03228333333333</v>
+        <v>1.032295</v>
       </c>
       <c r="H162" t="n">
         <v>1.965</v>
@@ -14552,7 +14552,7 @@
         <v>0.0127</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0135110868416227</v>
+        <v>0.0135205624302073</v>
       </c>
       <c r="H176" t="n">
         <v>0.0364551084982659</v>
@@ -14633,7 +14633,7 @@
         <v>0.0127</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0135110868416227</v>
+        <v>0.0135205624302073</v>
       </c>
       <c r="H177" t="n">
         <v>0.0364551084982659</v>
@@ -16152,7 +16152,7 @@
         <v>0.0127</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0135608139876999</v>
+        <v>0.0135628027289897</v>
       </c>
       <c r="H196" t="n">
         <v>0.0364551084982659</v>
@@ -16233,7 +16233,7 @@
         <v>0.0127</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0135608139876999</v>
+        <v>0.0135628027289897</v>
       </c>
       <c r="H197" t="n">
         <v>0.0364551084982659</v>
@@ -17752,7 +17752,7 @@
         <v>0.01313</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0143017266499312</v>
+        <v>0.014303922551772</v>
       </c>
       <c r="H216" t="n">
         <v>0.0364551084982659</v>
@@ -17833,7 +17833,7 @@
         <v>0.01313</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0143017266499312</v>
+        <v>0.014303922551772</v>
       </c>
       <c r="H217" t="n">
         <v>0.0364551084982659</v>
@@ -18585,6 +18585,1525 @@
         </is>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.2854</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.4024</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.0159074074074074</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P228" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.0159074074074074</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P229" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>371</v>
+      </c>
+      <c r="G230" t="n">
+        <v>758.185185185185</v>
+      </c>
+      <c r="H230" t="n">
+        <v>6200</v>
+      </c>
+      <c r="I230" t="n">
+        <v>2764.4</v>
+      </c>
+      <c r="J230" t="n">
+        <v>31.4814814814815</v>
+      </c>
+      <c r="K230" t="n">
+        <v>72.2222222222222</v>
+      </c>
+      <c r="L230" t="n">
+        <v>640</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1409.44</v>
+      </c>
+      <c r="N230" t="n">
+        <v>1996.48</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P230" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>371</v>
+      </c>
+      <c r="G231" t="n">
+        <v>758.185185185185</v>
+      </c>
+      <c r="H231" t="n">
+        <v>6200</v>
+      </c>
+      <c r="I231" t="n">
+        <v>2764.4</v>
+      </c>
+      <c r="J231" t="n">
+        <v>31.4814814814815</v>
+      </c>
+      <c r="K231" t="n">
+        <v>72.2222222222222</v>
+      </c>
+      <c r="L231" t="n">
+        <v>640</v>
+      </c>
+      <c r="M231" t="n">
+        <v>1409.44</v>
+      </c>
+      <c r="N231" t="n">
+        <v>1996.48</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P231" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>371</v>
+      </c>
+      <c r="G232" t="n">
+        <v>758.185185185185</v>
+      </c>
+      <c r="H232" t="n">
+        <v>6200</v>
+      </c>
+      <c r="I232" t="n">
+        <v>2764.4</v>
+      </c>
+      <c r="J232" t="n">
+        <v>31.4814814814815</v>
+      </c>
+      <c r="K232" t="n">
+        <v>72.2222222222222</v>
+      </c>
+      <c r="L232" t="n">
+        <v>640</v>
+      </c>
+      <c r="M232" t="n">
+        <v>1409.44</v>
+      </c>
+      <c r="N232" t="n">
+        <v>1996.48</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P232" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>371</v>
+      </c>
+      <c r="G233" t="n">
+        <v>758.185185185185</v>
+      </c>
+      <c r="H233" t="n">
+        <v>6200</v>
+      </c>
+      <c r="I233" t="n">
+        <v>2764.4</v>
+      </c>
+      <c r="J233" t="n">
+        <v>31.4814814814815</v>
+      </c>
+      <c r="K233" t="n">
+        <v>72.2222222222222</v>
+      </c>
+      <c r="L233" t="n">
+        <v>640</v>
+      </c>
+      <c r="M233" t="n">
+        <v>1409.44</v>
+      </c>
+      <c r="N233" t="n">
+        <v>1996.48</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P233" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>98</v>
+      </c>
+      <c r="G234" t="n">
+        <v>99.244</v>
+      </c>
+      <c r="H234" t="n">
+        <v>116</v>
+      </c>
+      <c r="I234" t="n">
+        <v>116</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>98</v>
+      </c>
+      <c r="M234" t="n">
+        <v>112.899</v>
+      </c>
+      <c r="N234" t="n">
+        <v>116</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P234" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>0.01336</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.0138028150817662</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.0364551084982659</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0.02854</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0.01972</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.02413</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P235" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>0.01336</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.0138028150817662</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.0364551084982659</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0.02854</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0.01972</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0.02413</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P236" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>0.8835</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.876259259259259</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1.2028</v>
+      </c>
+      <c r="N237" t="n">
+        <v>1.3254</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P237" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>0.8835</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.876259259259259</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="M238" t="n">
+        <v>1.2028</v>
+      </c>
+      <c r="N238" t="n">
+        <v>1.3254</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P238" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="G239" t="n">
+        <v>4.7164</v>
+      </c>
+      <c r="H239" t="n">
+        <v>6.262</v>
+      </c>
+      <c r="I239" t="n">
+        <v>6.262</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="M239" t="n">
+        <v>5.8658</v>
+      </c>
+      <c r="N239" t="n">
+        <v>6.262</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P239" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.914111111111111</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1.569</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1.4734</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M240" t="n">
+        <v>1.25432</v>
+      </c>
+      <c r="N240" t="n">
+        <v>1.40126</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P240" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.914111111111111</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1.569</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1.4734</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1.25432</v>
+      </c>
+      <c r="N241" t="n">
+        <v>1.40126</v>
+      </c>
+      <c r="O241" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P241" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1.0537037037037</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1.624</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1.3796</v>
+      </c>
+      <c r="N242" t="n">
+        <v>1.4524</v>
+      </c>
+      <c r="O242" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P242" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1.0537037037037</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1.624</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="M243" t="n">
+        <v>1.3796</v>
+      </c>
+      <c r="N243" t="n">
+        <v>1.4524</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P243" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.0400185185185185</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0.0646</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.05132</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P244" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.0400185185185185</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.0646</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.05132</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="P245" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/WaikawaatHuritini_b841af54ad.xlsx
+++ b/state_results/Rivers/WaikawaatHuritini_b841af54ad.xlsx
@@ -4677,10 +4677,10 @@
         <v>1.2</v>
       </c>
       <c r="G53" t="n">
-        <v>1.76624039540715</v>
+        <v>1.77341972179024</v>
       </c>
       <c r="H53" t="n">
-        <v>8.683298584136059</v>
+        <v>9.02072692414135</v>
       </c>
       <c r="I53" t="n">
         <v>4.665</v>
@@ -6046,10 +6046,10 @@
         <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>2.46621133145764</v>
+        <v>2.47388015736685</v>
       </c>
       <c r="H70" t="n">
-        <v>8.683298584136059</v>
+        <v>9.02072692414135</v>
       </c>
       <c r="I70" t="n">
         <v>5.9</v>
@@ -7492,10 +7492,10 @@
         <v>1.8</v>
       </c>
       <c r="G88" t="n">
-        <v>2.3754853871695</v>
+        <v>2.38251514425294</v>
       </c>
       <c r="H88" t="n">
-        <v>8.683298584136059</v>
+        <v>9.02072692414135</v>
       </c>
       <c r="I88" t="n">
         <v>5.7</v>
@@ -9092,10 +9092,10 @@
         <v>1.5</v>
       </c>
       <c r="G108" t="n">
-        <v>2.268332577916</v>
+        <v>2.27566797661177</v>
       </c>
       <c r="H108" t="n">
-        <v>8.683298584136059</v>
+        <v>9.02072692414135</v>
       </c>
       <c r="I108" t="n">
         <v>5.8</v>
@@ -10692,10 +10692,10 @@
         <v>1.2</v>
       </c>
       <c r="G128" t="n">
-        <v>1.95637605617687</v>
+        <v>1.96371145487264</v>
       </c>
       <c r="H128" t="n">
-        <v>8.683298584136059</v>
+        <v>9.02072692414135</v>
       </c>
       <c r="I128" t="n">
         <v>5.72</v>
